--- a/R_output_files/Tables/Clusters.xlsx
+++ b/R_output_files/Tables/Clusters.xlsx
@@ -379,7 +379,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.775634294461159</v>
+        <v>2.639266577502975</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -389,7 +389,8 @@
 ubiquitin-like protein ligase binding
 cell-cell junction
 cell growth
-positive regulation of kinase activity</t>
+positive regulation of kinase activity
+spindle</t>
         </is>
       </c>
     </row>
@@ -398,40 +399,36 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.3120499186964084</v>
+        <v>-0.5267075958832443</v>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>Mus musculus: Signaling by Receptor Tyrosine Kinases
-Mus musculus: Cellular response to chemical stress
-response to hypoxia
-nucleoside-triphosphatase regulator activity
-postsynaptic specialization
-synapse organization
-muscle tissue development
-embryonic organ development
-integral component of organelle membrane
-positive regulation of kinase activity
-spindle
-ubiquitin-like protein ligase binding</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-0.3662546921757617</v>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>Non-alcoholic fatty liver disease - Mus musculus (house mouse)
 Mus musculus: Cellular response to chemical stress
 Mus musculus: Neutrophil degranulation
 Mus musculus: Signaling by Receptor Tyrosine Kinases
 response to wounding
-integral component of organelle membrane</t>
+cell growth
+synapse organization</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-0.09226415660208484</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mus musculus: Neutrophil degranulation
+nucleoside-triphosphatase regulator activity
+mRNA processing
+cellular response to transforming growth factor beta stimulus
+spindle
+positive regulation of kinase activity
+postsynaptic specialization</t>
         </is>
       </c>
     </row>
@@ -440,39 +437,45 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.2674555037025814</v>
+        <v>-0.2259954208058162</v>
       </c>
       <c r="C5" t="inlineStr">
+        <is>
+          <t>Mus musculus: Signaling by Receptor Tyrosine Kinases
+Mus musculus: Cellular response to chemical stress
+postsynaptic specialization
+synapse organization
+muscle tissue development
+response to hypoxia
+embryonic organ development
+ubiquitin-like protein ligase binding</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-0.1164777958681935</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Mus musculus: Signaling by Receptor Tyrosine Kinases
 skeletal system development
 positive regulation of kinase activity
+establishment or maintenance of cell polarity
 cell growth
 positive regulation of cell cycle
 regulation of developmental growth
 synapse organization
 muscle tissue development
-establishment or maintenance of cell polarity
 response to wounding
 embryonic organ development
 cell-cell junction
+response to hypoxia
 ubiquitin-like protein ligase binding
-cellular response to transforming growth factor beta stimulus
-response to hypoxia</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1.568219179486078</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mus musculus: Neutrophil degranulation
-integral component of organelle membrane</t>
+cellular response to transforming growth factor beta stimulus</t>
         </is>
       </c>
     </row>

--- a/R_output_files/Tables/Clusters.xlsx
+++ b/R_output_files/Tables/Clusters.xlsx
@@ -383,14 +383,10 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mus musculus: Cellular response to chemical stress
-Mus musculus: Neutrophil degranulation
-protein autophosphorylation
-ubiquitin-like protein ligase binding
-cell-cell junction
-cell growth
-positive regulation of kinase activity
-spindle</t>
+          <t>Coronavirus disease - COVID-19 - Mus musculus (house mouse)
+Mus musculus: Cellular responses to stress
+Mus musculus: Intracellular signaling by second messengers
+Mus musculus: Cellular response to chemical stress</t>
         </is>
       </c>
     </row>
@@ -403,13 +399,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Non-alcoholic fatty liver disease - Mus musculus (house mouse)
+          <t>Oxidative phosphorylation - Mus musculus (house mouse)
+Non-alcoholic fatty liver disease - Mus musculus (house mouse)
+Mus musculus: Cellular responses to stress
 Mus musculus: Cellular response to chemical stress
-Mus musculus: Neutrophil degranulation
-Mus musculus: Signaling by Receptor Tyrosine Kinases
-response to wounding
-cell growth
-synapse organization</t>
+Mus musculus: Signaling by Receptor Tyrosine Kinases</t>
         </is>
       </c>
     </row>
@@ -422,13 +416,9 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mus musculus: Neutrophil degranulation
-nucleoside-triphosphatase regulator activity
-mRNA processing
-cellular response to transforming growth factor beta stimulus
-spindle
-positive regulation of kinase activity
-postsynaptic specialization</t>
+          <t>Coronavirus disease - COVID-19 - Mus musculus (house mouse)
+Mus musculus: L13a-mediated translational silencing of Ceruloplasmin expression
+Mus musculus: Cellular responses to stress</t>
         </is>
       </c>
     </row>
@@ -441,14 +431,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mus musculus: Signaling by Receptor Tyrosine Kinases
-Mus musculus: Cellular response to chemical stress
-postsynaptic specialization
-synapse organization
-muscle tissue development
-response to hypoxia
-embryonic organ development
-ubiquitin-like protein ligase binding</t>
+          <t>Coronavirus disease - COVID-19 - Mus musculus (house mouse)
+Mus musculus: Cellular responses to stress
+Mus musculus: L13a-mediated translational silencing of Ceruloplasmin expression
+Mus musculus: Intracellular signaling by second messengers
+Mus musculus: Signaling by Receptor Tyrosine Kinases
+Mus musculus: Cellular response to chemical stress</t>
         </is>
       </c>
     </row>
@@ -461,21 +449,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mus musculus: Signaling by Receptor Tyrosine Kinases
-skeletal system development
-positive regulation of kinase activity
-establishment or maintenance of cell polarity
-cell growth
-positive regulation of cell cycle
-regulation of developmental growth
-synapse organization
-muscle tissue development
-response to wounding
-embryonic organ development
-cell-cell junction
-response to hypoxia
-ubiquitin-like protein ligase binding
-cellular response to transforming growth factor beta stimulus</t>
+          <t>Mus musculus: Signaling by Receptor Tyrosine Kinases</t>
         </is>
       </c>
     </row>

--- a/R_output_files/Tables/Clusters.xlsx
+++ b/R_output_files/Tables/Clusters.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,37 +422,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-0.2259954208058162</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Coronavirus disease - COVID-19 - Mus musculus (house mouse)
-Mus musculus: Cellular responses to stress
-Mus musculus: L13a-mediated translational silencing of Ceruloplasmin expression
-Mus musculus: Intracellular signaling by second messengers
-Mus musculus: Signaling by Receptor Tyrosine Kinases
-Mus musculus: Cellular response to chemical stress</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-0.1164777958681935</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mus musculus: Signaling by Receptor Tyrosine Kinases</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
